--- a/sem2/aisd_lab/8__05_23_lab_algo/zadania_Kruskal_Prima.xlsx
+++ b/sem2/aisd_lab/8__05_23_lab_algo/zadania_Kruskal_Prima.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w65550\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29F911C-4E5F-4D8B-9143-3F1A1A86B6F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C8C0173-7D14-43CB-B6F1-927B52B9E527}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{982BBA65-82D4-4D63-BD81-13B1E8AB87C0}"/>
   </bookViews>
@@ -17,19 +17,35 @@
     <sheet name="Zadanie_2" sheetId="2" r:id="rId2"/>
     <sheet name="Zadanie_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="12">
   <si>
-    <t>Macierz sąsiedztwa</t>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>rozlaczne podzbiory</t>
   </si>
   <si>
     <t>u</t>
@@ -41,35 +57,29 @@
     <t>w</t>
   </si>
   <si>
-    <t>T</t>
+    <t>Macierz sąsiedztwa</t>
   </si>
   <si>
-    <t>Z</t>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>visited</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>rozlaczne podzbiory</t>
+    <t>false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -430,30 +440,67 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -463,12 +510,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -479,10 +524,45 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -519,106 +599,106 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,10 +719,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Dane wejściowe" xfId="3" builtinId="20"/>
-    <cellStyle name="Dane wyjściowe" xfId="1" builtinId="21"/>
-    <cellStyle name="Neutralny" xfId="2" builtinId="28"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,13 +832,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>218681</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -766,6 +846,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC79F3D-73A2-435A-A2A7-BBCFD652BE5B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{99AC901C-1CA5-4DEC-83F6-BBF2CB9CA361}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -781,7 +864,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="9525"/>
+          <a:off x="0" y="0"/>
           <a:ext cx="3152381" cy="1438275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -977,13 +1060,60 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53BF77BE-1BF7-17FF-68EB-0B583668A234}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F298119E-4F9F-4BAD-ABC6-F98C48859916}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12649200" y="0"/>
+          <a:ext cx="11115675" cy="6638925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1021,7 +1151,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1127,7 +1257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1277,13 +1407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665A9190-DFB5-4605-A9EA-B06D25333670}">
-  <dimension ref="A1:AH42"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="16" width="3.28515625" customWidth="1"/>
@@ -1292,76 +1422,76 @@
     <col min="21" max="21" width="4.7109375" style="6" customWidth="1"/>
     <col min="22" max="24" width="3.28515625" style="1" customWidth="1"/>
     <col min="25" max="25" width="4.7109375" style="1" customWidth="1"/>
-    <col min="26" max="34" width="3.28515625" style="12" customWidth="1"/>
+    <col min="26" max="34" width="3.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="Q1" s="44">
         <v>1</v>
       </c>
       <c r="R1" s="44"/>
       <c r="S1" s="44"/>
       <c r="V1" s="44" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W1" s="44"/>
       <c r="X1" s="44"/>
-      <c r="Z1" s="13" t="s">
+      <c r="Z1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AD1" s="12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="P2" s="8"/>
-      <c r="Q2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="12">
+      <c r="V2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="10">
         <v>0</v>
       </c>
-      <c r="AA2" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="12">
+      <c r="AA2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE2" s="10">
         <v>5</v>
       </c>
-      <c r="AF2" s="12">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="12">
-        <v>7</v>
-      </c>
-      <c r="AH2" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AF2" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>7</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="Q3" s="2">
         <v>6</v>
       </c>
@@ -1381,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34">
       <c r="Q4" s="2">
         <v>2</v>
       </c>
@@ -1400,29 +1530,32 @@
       <c r="X4" s="2">
         <v>2</v>
       </c>
-      <c r="Z4" s="12">
+      <c r="Z4" s="10">
         <v>0</v>
       </c>
-      <c r="AA4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="12">
+      <c r="AA4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="10">
         <v>5</v>
       </c>
-      <c r="AG4" s="12">
-        <v>7</v>
-      </c>
-      <c r="AH4" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG4" s="10">
+        <v>7</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="Q5" s="2">
         <v>7</v>
       </c>
@@ -1441,11 +1574,11 @@
       <c r="X5" s="2">
         <v>2</v>
       </c>
-      <c r="AG5" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG5" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="Q6" s="2">
         <v>0</v>
       </c>
@@ -1465,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34">
       <c r="Q7" s="2">
         <v>2</v>
       </c>
@@ -1484,29 +1617,29 @@
       <c r="X7" s="2">
         <v>4</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="10">
         <v>0</v>
       </c>
-      <c r="AA7" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="12">
+      <c r="AA7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="10">
         <v>5</v>
       </c>
-      <c r="AG7" s="12">
-        <v>7</v>
-      </c>
-      <c r="AH7" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG7" s="10">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="Q8" s="2">
         <v>4</v>
       </c>
@@ -1519,16 +1652,16 @@
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="AD8" s="12">
-        <v>2</v>
-      </c>
-      <c r="AG8" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD8" s="10">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="43" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -1559,7 +1692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34">
       <c r="B10" s="4">
         <v>0</v>
       </c>
@@ -1602,26 +1735,26 @@
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Z10" s="12">
+      <c r="Z10" s="10">
         <v>0</v>
       </c>
-      <c r="AA10" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE10" s="12">
+      <c r="AA10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="10">
         <v>5</v>
       </c>
-      <c r="AG10" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG10" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -1657,14 +1790,14 @@
       <c r="X11" s="2">
         <v>8</v>
       </c>
-      <c r="AD11" s="12">
-        <v>2</v>
-      </c>
-      <c r="AG11" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AD11" s="10">
+        <v>2</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -1694,11 +1827,11 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="AG12" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG12" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -1737,7 +1870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -1767,23 +1900,23 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Z14" s="12">
+      <c r="Z14" s="10">
         <v>0</v>
       </c>
-      <c r="AC14" s="12">
-        <v>3</v>
-      </c>
-      <c r="AD14" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="12">
+      <c r="AC14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="10">
         <v>5</v>
       </c>
-      <c r="AG14" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG14" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -1813,17 +1946,17 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Z15" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="12">
-        <v>2</v>
-      </c>
-      <c r="AG15" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="Z15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>2</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -1845,11 +1978,11 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="AG16" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG16" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" s="5">
         <v>6</v>
       </c>
@@ -1865,11 +1998,8 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" s="5">
         <v>7</v>
       </c>
@@ -1885,23 +2015,20 @@
         <v>2</v>
       </c>
       <c r="K18" s="3"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="Z18" s="12">
+      <c r="Z18" s="10">
         <v>0</v>
       </c>
-      <c r="AC18" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE18" s="12">
+      <c r="AC18" s="10">
+        <v>3</v>
+      </c>
+      <c r="AE18" s="10">
         <v>5</v>
       </c>
-      <c r="AG18" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG18" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" s="5">
         <v>8</v>
       </c>
@@ -1915,17 +2042,14 @@
       <c r="I19" s="3"/>
       <c r="J19" s="7"/>
       <c r="K19" s="3"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="Z19" s="12">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Z19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" s="5">
         <v>9</v>
       </c>
@@ -1939,111 +2063,144 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="7"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="AG20" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="AG21" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG22" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AE25" s="12">
+      <c r="AG20" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="AG21" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="AG22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="Z24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="10">
         <v>5</v>
       </c>
-      <c r="AG25" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG26" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG27" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG28" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG29" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG30" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG31" s="12">
+      <c r="AG24" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="Z25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="AG26" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="AG27" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="AG28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="AG29" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="AE31" s="10">
+        <v>5</v>
+      </c>
+      <c r="AG31" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="AG32" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="33:33">
+      <c r="AG33" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="33:33">
+      <c r="AG34" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="33:33">
+      <c r="AG35" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="33:33">
+      <c r="AG36" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="33:33">
+      <c r="AG37" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AG32" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG34" s="12">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG35" s="12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG36" s="12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG37" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG38" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG39" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG40" s="12">
+    <row r="38" spans="33:33">
+      <c r="AG38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="33:33">
+      <c r="AG40" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="33:33">
+      <c r="AG41" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="33:33">
+      <c r="AG42" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="33:33">
+      <c r="AG43" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="33:33">
+      <c r="AG44" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="33:33">
+      <c r="AG45" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="33:33">
+      <c r="AG46" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG41" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="33:33" x14ac:dyDescent="0.25">
-      <c r="AG42" s="12">
+    <row r="47" spans="33:33">
+      <c r="AG47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="33:33">
+      <c r="AG48" s="10">
         <v>5</v>
       </c>
     </row>
@@ -2060,13 +2217,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216FAF77-72CC-4618-9C8D-DC91F02562A5}">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="14" width="3.28515625" customWidth="1"/>
@@ -2074,45 +2231,45 @@
     <col min="18" max="18" width="3.28515625" customWidth="1"/>
     <col min="19" max="19" width="3.28515625" style="6" customWidth="1"/>
     <col min="20" max="24" width="3.28515625" style="1" customWidth="1"/>
-    <col min="25" max="33" width="3.28515625" style="12" customWidth="1"/>
+    <col min="25" max="33" width="3.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="O1" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y1" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="N2" s="8"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="S2" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -2120,7 +2277,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -2128,7 +2285,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -2136,7 +2293,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -2144,7 +2301,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -2152,19 +2309,17 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="43" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -2179,43 +2334,37 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+    </row>
+    <row r="10" spans="1:25">
+      <c r="B10" s="4">
         <v>0</v>
       </c>
-      <c r="C10" s="14">
-        <v>1</v>
-      </c>
-      <c r="D10" s="14">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14">
-        <v>3</v>
-      </c>
-      <c r="F10" s="14">
-        <v>4</v>
-      </c>
-      <c r="G10" s="14">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="14">
-        <v>6</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="H10" s="4">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4">
         <v>7</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -2230,11 +2379,8 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="5">
         <v>1</v>
       </c>
@@ -2249,11 +2395,8 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -2268,11 +2411,8 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -2287,11 +2427,8 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="5">
         <v>4</v>
       </c>
@@ -2303,14 +2440,8 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="5">
         <v>5</v>
       </c>
@@ -2322,11 +2453,8 @@
       <c r="G16" s="7"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="5">
         <v>6</v>
       </c>
@@ -2338,11 +2466,8 @@
       <c r="G17" s="3"/>
       <c r="H17" s="7"/>
       <c r="I17" s="3"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="5">
         <v>7</v>
       </c>
@@ -2353,25 +2478,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="15"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="I18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2387,431 +2494,917 @@
   <dimension ref="K1:AF28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="16" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="16"/>
-    <col min="5" max="5" width="8.42578125" style="16" customWidth="1"/>
-    <col min="6" max="9" width="9.140625" style="16"/>
-    <col min="10" max="11" width="3.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="13" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="13"/>
+    <col min="5" max="5" width="8.42578125" style="13" customWidth="1"/>
+    <col min="6" max="9" width="9.140625" style="13"/>
+    <col min="10" max="11" width="3.28515625" style="13" customWidth="1"/>
     <col min="12" max="12" width="3.28515625" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="22" width="3.28515625" style="17" customWidth="1"/>
-    <col min="23" max="23" width="9.85546875" style="16" customWidth="1"/>
-    <col min="24" max="32" width="4.7109375" style="16" customWidth="1"/>
-    <col min="33" max="38" width="3.28515625" style="16" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="16"/>
+    <col min="14" max="22" width="3.28515625" style="14" customWidth="1"/>
+    <col min="23" max="23" width="9.85546875" style="13" customWidth="1"/>
+    <col min="24" max="32" width="4.7109375" style="13" customWidth="1"/>
+    <col min="33" max="38" width="3.28515625" style="13" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="11:32">
       <c r="N1" s="45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="O1" s="46"/>
       <c r="P1" s="47"/>
       <c r="Q1" s="48" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R1" s="48"/>
       <c r="S1" s="49"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="23" t="s">
+      <c r="T1" s="31"/>
+      <c r="U1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE1" s="15">
+        <v>7</v>
+      </c>
+      <c r="AF1" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="11:32" ht="15.75" thickBot="1">
+      <c r="K2" s="14"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="32"/>
+      <c r="U2" s="16">
+        <v>1</v>
+      </c>
+      <c r="V2" s="16">
+        <v>0</v>
+      </c>
+      <c r="W2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="18">
+      <c r="X2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="11:32">
+      <c r="Q3" s="34">
         <v>0</v>
       </c>
-      <c r="Y1" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="18">
-        <v>2</v>
-      </c>
-      <c r="AA1" s="18">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="18">
-        <v>4</v>
-      </c>
-      <c r="AC1" s="18">
+      <c r="R3" s="34">
+        <v>1</v>
+      </c>
+      <c r="S3" s="34">
+        <v>4</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="17"/>
+    </row>
+    <row r="4" spans="11:32">
+      <c r="Q4" s="34">
+        <v>0</v>
+      </c>
+      <c r="R4" s="34">
+        <v>4</v>
+      </c>
+      <c r="S4" s="34">
+        <v>8</v>
+      </c>
+      <c r="U4" s="16"/>
+      <c r="V4" s="20"/>
+      <c r="X4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="15">
         <v>5</v>
       </c>
-      <c r="AD1" s="18">
-        <v>6</v>
-      </c>
-      <c r="AE1" s="18">
-        <v>7</v>
-      </c>
-      <c r="AF1" s="18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="11:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K2" s="17"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R2" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="41"/>
-      <c r="U2" s="19">
-        <v>1</v>
-      </c>
-      <c r="V2" s="19">
+      <c r="AD4" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="11:32">
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34">
+        <v>4</v>
+      </c>
+      <c r="R5" s="34">
+        <v>6</v>
+      </c>
+      <c r="S5" s="34">
+        <v>1</v>
+      </c>
+      <c r="U5" s="16">
+        <v>2</v>
+      </c>
+      <c r="V5" s="20">
+        <v>1</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="11:32">
+      <c r="N6" s="34">
+        <v>1</v>
+      </c>
+      <c r="O6" s="34">
+        <v>4</v>
+      </c>
+      <c r="P6" s="34">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="34">
+        <v>6</v>
+      </c>
+      <c r="R6" s="34">
+        <v>7</v>
+      </c>
+      <c r="S6" s="34">
+        <v>2</v>
+      </c>
+      <c r="U6" s="16"/>
+      <c r="V6" s="20"/>
+    </row>
+    <row r="7" spans="11:32">
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34">
+        <v>7</v>
+      </c>
+      <c r="R7" s="34">
+        <v>2</v>
+      </c>
+      <c r="S7" s="34">
+        <v>4</v>
+      </c>
+      <c r="U7" s="16"/>
+      <c r="V7" s="20"/>
+      <c r="X7" s="15">
         <v>0</v>
       </c>
-      <c r="W2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE2" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF2" s="19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N3" s="28"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="20"/>
-    </row>
-    <row r="4" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N4" s="28"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-    </row>
-    <row r="5" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N5" s="28"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="19">
-        <v>2</v>
-      </c>
-      <c r="V5" s="19"/>
-    </row>
-    <row r="6" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N6" s="28"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-    </row>
-    <row r="7" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N7" s="28"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-    </row>
-    <row r="8" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N8" s="28"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="19">
-        <v>3</v>
-      </c>
-      <c r="V8" s="19"/>
-    </row>
-    <row r="9" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N9" s="28"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-    </row>
-    <row r="10" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N10" s="28"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-    </row>
-    <row r="11" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N11" s="28"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="19">
-        <v>4</v>
-      </c>
-      <c r="V11" s="19"/>
-    </row>
-    <row r="12" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N12" s="28"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
-    </row>
-    <row r="13" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N13" s="28"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-    </row>
-    <row r="14" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N14" s="28"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="19">
+      <c r="Y7" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="15">
         <v>5</v>
       </c>
-      <c r="V14" s="19"/>
-    </row>
-    <row r="15" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N15" s="28"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
-    </row>
-    <row r="16" spans="11:32" x14ac:dyDescent="0.25">
-      <c r="N16" s="28"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-    </row>
-    <row r="17" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N17" s="28"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="29"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="19">
-        <v>6</v>
-      </c>
-      <c r="V17" s="19"/>
-    </row>
-    <row r="18" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N18" s="28"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
-    </row>
-    <row r="19" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N19" s="28"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-    </row>
-    <row r="20" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N20" s="28"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="29"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="19">
-        <v>7</v>
-      </c>
-      <c r="V20" s="19"/>
-    </row>
-    <row r="21" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N21" s="28"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="19"/>
-      <c r="V21" s="19"/>
-    </row>
-    <row r="22" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N22" s="28"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="19"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="19"/>
-      <c r="V22" s="19"/>
-    </row>
-    <row r="23" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N23" s="28"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="19"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="19">
-        <v>8</v>
-      </c>
-      <c r="V23" s="19"/>
-    </row>
-    <row r="24" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N24" s="28"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-    </row>
-    <row r="25" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N25" s="28"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="19"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="19"/>
-      <c r="V25" s="19"/>
-    </row>
-    <row r="26" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N26" s="28"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="19"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="19"/>
-      <c r="V26" s="19"/>
-    </row>
-    <row r="27" spans="14:22" x14ac:dyDescent="0.25">
-      <c r="N27" s="28"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-    </row>
-    <row r="28" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N28" s="30"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
+      <c r="AD7" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE7" s="15">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="11:32">
+      <c r="Q8" s="34">
+        <v>2</v>
+      </c>
+      <c r="R8" s="34">
+        <v>5</v>
+      </c>
+      <c r="S8" s="34">
+        <v>2</v>
+      </c>
+      <c r="U8" s="16">
+        <v>3</v>
+      </c>
+      <c r="V8" s="20">
+        <v>4</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF8" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="11:32">
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34">
+        <v>2</v>
+      </c>
+      <c r="R9" s="34">
+        <v>3</v>
+      </c>
+      <c r="S9" s="34">
+        <v>7</v>
+      </c>
+      <c r="U9" s="16"/>
+      <c r="V9" s="20"/>
+    </row>
+    <row r="10" spans="11:32">
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="22">
+        <v>3</v>
+      </c>
+      <c r="R10" s="16">
+        <v>8</v>
+      </c>
+      <c r="S10" s="20">
+        <v>9</v>
+      </c>
+      <c r="U10" s="16"/>
+      <c r="V10" s="20"/>
+      <c r="X10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="11:32">
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="40"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="42"/>
+      <c r="U11" s="16">
+        <v>4</v>
+      </c>
+      <c r="V11" s="20">
+        <v>6</v>
+      </c>
+      <c r="W11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF11" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="11:32">
+      <c r="Q12" s="35"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="23"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="20"/>
+    </row>
+    <row r="13" spans="11:32">
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="23"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="20"/>
+      <c r="X13" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA13" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC13" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD13" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE13" s="15">
+        <v>7</v>
+      </c>
+      <c r="AF13" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="11:32">
+      <c r="N14" s="34">
+        <v>7</v>
+      </c>
+      <c r="O14" s="34">
+        <v>8</v>
+      </c>
+      <c r="P14" s="34">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="23"/>
+      <c r="U14" s="16">
+        <v>5</v>
+      </c>
+      <c r="V14" s="20">
+        <v>7</v>
+      </c>
+      <c r="W14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="11:32">
+      <c r="N15" s="34">
+        <v>7</v>
+      </c>
+      <c r="O15" s="34">
+        <v>3</v>
+      </c>
+      <c r="P15" s="34">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="23"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" spans="11:32">
+      <c r="Q16" s="35"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="23"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="20"/>
+      <c r="X16" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="15">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="14:32">
+      <c r="Q17" s="35"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="23"/>
+      <c r="U17" s="16">
+        <v>6</v>
+      </c>
+      <c r="V17" s="20">
+        <v>2</v>
+      </c>
+      <c r="W17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE17" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF17" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="14:32">
+      <c r="Q18" s="35"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="23"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="20"/>
+    </row>
+    <row r="19" spans="14:32">
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="23"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="20"/>
+      <c r="X19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>7</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="14:32">
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="23"/>
+      <c r="U20" s="16">
+        <v>7</v>
+      </c>
+      <c r="V20" s="20">
+        <v>5</v>
+      </c>
+      <c r="W20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF20" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="14:32">
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="23"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="20"/>
+    </row>
+    <row r="22" spans="14:32">
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="23"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="20"/>
+      <c r="X22" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB22" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE22" s="15">
+        <v>7</v>
+      </c>
+      <c r="AF22" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="14:32">
+      <c r="Q23" s="22"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="23"/>
+      <c r="U23" s="16">
+        <v>8</v>
+      </c>
+      <c r="V23" s="20">
+        <v>3</v>
+      </c>
+      <c r="W23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF23" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="14:32">
+      <c r="N24" s="22"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="23"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="20"/>
+    </row>
+    <row r="25" spans="14:32">
+      <c r="N25" s="22"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="23"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="20"/>
+      <c r="X25" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="15">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="15">
+        <v>4</v>
+      </c>
+      <c r="AC25" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD25" s="15">
+        <v>6</v>
+      </c>
+      <c r="AE25" s="15">
+        <v>7</v>
+      </c>
+      <c r="AF25" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="14:32">
+      <c r="N26" s="22"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="23"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="X26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE26" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF26" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="14:32">
+      <c r="N27" s="22"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="23"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="20"/>
+    </row>
+    <row r="28" spans="14:32" ht="15.75" thickBot="1">
+      <c r="N28" s="24"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="26"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
